--- a/biology/Zoologie/Gymnocharacinus_bergii/Gymnocharacinus_bergii.xlsx
+++ b/biology/Zoologie/Gymnocharacinus_bergii/Gymnocharacinus_bergii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnocharacinus bergii, unique représentant du genre Gymnocharacinus, est une espèce de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnocharacinus bergii est endémique du bassin du río Negro en Argentine[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnocharacinus bergii est endémique du bassin du río Negro en Argentine,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnocharacinus bergii peut mesurer jusqu'à 75 mm de longueur totale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnocharacinus bergii peut mesurer jusqu'à 75 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Gymnocharacinus et l'espèce Gymnocharacinus bergii ont été décrits en 1903 par le zoologiste autrichien Franz Steindachner (1834-1919)[3],[4].
-Gymnocharacinus bergii a pour synonyme[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Gymnocharacinus et l'espèce Gymnocharacinus bergii ont été décrits en 1903 par le zoologiste autrichien Franz Steindachner (1834-1919),.
+Gymnocharacinus bergii a pour synonyme :
 Gymnocharacinus bergi Steindachner, 1903</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, bergii, lui a été donnée en l'honneur du naturaliste et entomologiste argentin d’origine germano-balte Carlos Berg (1843-1902), ami de longue date de l'auteur, qui lui a procuré le spécimen type[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, bergii, lui a été donnée en l'honneur du naturaliste et entomologiste argentin d’origine germano-balte Carlos Berg (1843-1902), ami de longue date de l'auteur, qui lui a procuré le spécimen type.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) F. Steindachner, « Über einige neue Fisch- und Reptilienarten des k. k. naturhistorischen Hofmuseums », Anzeiger der Kaiserlichen Akademie der Wissenschaften, Mathematisch-Naturwissenschaftliche Classe, Vienne, vol. 40, no 3,‎ 22 janvier 1903, p. 17-18 (lire en ligne, consulté le 16 août 2023).</t>
         </is>
